--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oneeb Aamer\Documents\Nuffield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68513340-515D-4765-BB36-D28CF315E3AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38DEE55-9B9A-4FC1-8851-6FB9AC3784B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Name:</t>
   </si>
@@ -29,30 +29,6 @@
   </si>
   <si>
     <t>CO2 (KG):</t>
-  </si>
-  <si>
-    <t>Nissan e-NV200</t>
-  </si>
-  <si>
-    <t>Renault Kangoo Maxi ZE33</t>
-  </si>
-  <si>
-    <t>Peugeot SE L1</t>
-  </si>
-  <si>
-    <t>Saturn City Van</t>
-  </si>
-  <si>
-    <t>XL Voltia</t>
-  </si>
-  <si>
-    <t>Citroen Berlingo Electric</t>
-  </si>
-  <si>
-    <t>Renault Master ZE</t>
-  </si>
-  <si>
-    <t>Mercedes eVito</t>
   </si>
   <si>
     <t>Position:</t>
@@ -214,36 +190,13 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>Sheet1!$A$2:$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Nissan e-NV200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Renault Kangoo Maxi ZE33</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Peugeot SE L1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Saturn City Van</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>XL Voltia</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Citroen Berlingo Electric</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Renault Master ZE</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Mercedes eVito</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -251,30 +204,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>39.068965517241381</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>33.068965517241381</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>51.068965517241381</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>39.068965517241381</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>39.068965517241381</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>54.068965517241381</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44.228965517241377</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>51.068965517241381</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -832,7 +761,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A15" sqref="A15:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,92 +783,44 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>39.068965517241381</v>
-      </c>
-      <c r="C2" s="1">
-        <v>70.762780000000006</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>33.068965517241381</v>
-      </c>
-      <c r="C3" s="1">
-        <v>70.762780000000006</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>51.068965517241381</v>
-      </c>
-      <c r="C4" s="1">
-        <v>70.762780000000006</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>39.068965517241381</v>
-      </c>
-      <c r="C5" s="1">
-        <v>35.58916</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>39.068965517241381</v>
-      </c>
-      <c r="C6" s="1">
-        <v>70.762780000000006</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>54.068965517241381</v>
-      </c>
-      <c r="C7" s="1">
-        <v>48.570839999999997</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>44.228965517241377</v>
-      </c>
-      <c r="C8" s="1">
-        <v>70.762780000000006</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>51.068965517241381</v>
-      </c>
-      <c r="C9" s="1">
-        <v>70.762780000000006</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
@@ -953,80 +834,48 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>4</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>6</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>7</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
